--- a/data/hb_ir_data.xlsx
+++ b/data/hb_ir_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ir-mit-hit\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ir-mit-hit\ir-mit-hit\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D03160B-1FF8-47BB-B15F-849B6D4E0B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDB7630-B664-417F-A19D-D711048E9FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{11B9FA92-2456-704A-B0C3-E5047CDFC66B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{11B9FA92-2456-704A-B0C3-E5047CDFC66B}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -133,13 +133,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84ED90D1-4114-054A-9A9F-036780322CD8}">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N6" sqref="N6:N26"/>
@@ -702,7 +700,6 @@
       <c r="L6" s="1">
         <v>96.115314305707699</v>
       </c>
-      <c r="N6" s="4"/>
       <c r="P6"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -742,7 +739,6 @@
       <c r="L7" s="1">
         <v>80.316855049420241</v>
       </c>
-      <c r="N7" s="4"/>
       <c r="P7" s="2"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -782,7 +778,6 @@
       <c r="L8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N8" s="4"/>
       <c r="P8"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -822,7 +817,7 @@
       <c r="L9" s="1">
         <v>84.419117647058826</v>
       </c>
-      <c r="N9" s="5"/>
+      <c r="N9" s="2"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -861,7 +856,7 @@
       <c r="L10" s="1">
         <v>81.077123117104279</v>
       </c>
-      <c r="N10" s="5"/>
+      <c r="N10" s="2"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -900,7 +895,6 @@
       <c r="L11" s="1">
         <v>76.836340206185568</v>
       </c>
-      <c r="N11" s="4"/>
       <c r="P11" s="2"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -940,7 +934,6 @@
       <c r="L12" s="1">
         <v>89.785080751066744</v>
       </c>
-      <c r="N12" s="4"/>
       <c r="P12" s="3"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -980,7 +973,6 @@
       <c r="L13" s="1">
         <v>81.707560863654805</v>
       </c>
-      <c r="N13" s="4"/>
       <c r="P13" s="2"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -1020,7 +1012,6 @@
       <c r="L14" s="1">
         <v>84.935645241952244</v>
       </c>
-      <c r="N14" s="4"/>
       <c r="P14" s="2"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1060,7 +1051,6 @@
       <c r="L15" s="1">
         <v>88.474576271186436</v>
       </c>
-      <c r="N15" s="4"/>
       <c r="P15" s="2"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1100,7 +1090,7 @@
       <c r="L16" s="1">
         <v>75.378641681648872</v>
       </c>
-      <c r="N16" s="5"/>
+      <c r="N16" s="2"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -1139,7 +1129,6 @@
       <c r="L17" s="1">
         <v>83.831901662956113</v>
       </c>
-      <c r="N17" s="4"/>
       <c r="P17" s="2"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -1179,7 +1168,6 @@
       <c r="L18" s="1">
         <v>86.726708074534159</v>
       </c>
-      <c r="N18" s="4"/>
       <c r="P18" s="2"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
@@ -1219,7 +1207,6 @@
       <c r="L19" s="1">
         <v>80.04023078601179</v>
       </c>
-      <c r="N19" s="4"/>
       <c r="P19" s="2"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -1259,7 +1246,6 @@
       <c r="L20" s="1">
         <v>79.951029696620353</v>
       </c>
-      <c r="N20" s="4"/>
       <c r="P20"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
@@ -1299,7 +1285,6 @@
       <c r="L21" s="1">
         <v>81.835992172231869</v>
       </c>
-      <c r="N21" s="4"/>
       <c r="P21" s="2"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
@@ -1339,7 +1324,6 @@
       <c r="L22" s="1">
         <v>94.541136031414098</v>
       </c>
-      <c r="N22" s="4"/>
       <c r="P22" s="2"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
@@ -1379,16 +1363,7 @@
       <c r="L23" s="1">
         <v>84.478489467312713</v>
       </c>
-      <c r="N23" s="5"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N24" s="4"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N25" s="4"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N26" s="4"/>
+      <c r="N23" s="2"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K1048553">
